--- a/Documentação/Tabela_de_Requisitos_1.0.xlsx
+++ b/Documentação/Tabela_de_Requisitos_1.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Fernando\Desktop\Meus Arquivos\Faculdade\Bandtec\1Semestre\SenSolutions\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9202A03A-EEDE-4F27-9361-AA188BF14912}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -134,8 +135,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,20 +168,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Panton Light Caps"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Panton Light Caps"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Zona Pro"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Zona Pro"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Panton Light Caps"/>
+      <family val="3"/>
+      <charset val="238"/>
     </font>
     <font>
       <b/>
       <u/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Panton Light Caps"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Panton Light Caps"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Zona Pro"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="10">
@@ -239,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -251,6 +296,89 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -276,44 +404,84 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - Ênfase3" xfId="6" builtinId="39"/>
-    <cellStyle name="azulzinho" xfId="2"/>
-    <cellStyle name="Estilo 1" xfId="1"/>
-    <cellStyle name="Estilo 2" xfId="3"/>
-    <cellStyle name="Estilo 3" xfId="4"/>
-    <cellStyle name="Estilo 4" xfId="5"/>
+    <cellStyle name="azulzinho" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Estilo 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Estilo 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Estilo 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Estilo 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -630,210 +798,211 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="78.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="105.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="61.85546875" customWidth="1"/>
+    <col min="5" max="5" width="77" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
